--- a/_site/projects/sports-dynasties/data/sports-teams.xlsx
+++ b/_site/projects/sports-dynasties/data/sports-teams.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben-tanen/Desktop/Projects/Blog/projects/sports-dynasties/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben-tanen/Google Drive/Projects/bt-website/code/projects/sports-dynasties/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="12600" yWindow="460" windowWidth="16200" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="187">
   <si>
     <t>Green Bay Packers</t>
   </si>
@@ -586,6 +589,12 @@
   <si>
     <t>Duplicate Cities</t>
   </si>
+  <si>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
+  </si>
 </sst>
 </file>
 
@@ -647,37 +656,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -695,46 +684,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1023,20 +972,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B2">
@@ -1044,7 +993,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B3">
@@ -1062,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1110,19 +1059,19 @@
         <v>58</v>
       </c>
       <c r="D2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C2,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C2,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C2,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C2,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F2" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C2,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C2,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G2" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C2,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C2,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1151,19 +1100,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C4,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C4,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C4,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C4,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F4" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C4,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C4,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G4" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C4,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C4,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1178,19 +1127,19 @@
         <v>80</v>
       </c>
       <c r="D5" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C5,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C5,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C5,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C5,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F5" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C5,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C5,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G5" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C5,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C5,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -1205,19 +1154,19 @@
         <v>81</v>
       </c>
       <c r="D6" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C6,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C6,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C6,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C6,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F6" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C6,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C6,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G6" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C6,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C6,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -1232,19 +1181,19 @@
         <v>81</v>
       </c>
       <c r="D7" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C7,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C7,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C7,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C7,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F7" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C7,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C7,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G7" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C7,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C7,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -1259,19 +1208,19 @@
         <v>88</v>
       </c>
       <c r="D8" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C8,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C8,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C8,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C8,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F8" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C8,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C8,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G8" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C8,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C8,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -1286,19 +1235,19 @@
         <v>82</v>
       </c>
       <c r="D9" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C9,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C9,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C9,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C9,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F9" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C9,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C9,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G9" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C9,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C9,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -1313,19 +1262,19 @@
         <v>82</v>
       </c>
       <c r="D10" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C10,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C10,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C10,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C10,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F10" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C10,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C10,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G10" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C10,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C10,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -1340,19 +1289,19 @@
         <v>56</v>
       </c>
       <c r="D11" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C11,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C11,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C11,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C11,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F11" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C11,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C11,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G11" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C11,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C11,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1367,19 +1316,19 @@
         <v>82</v>
       </c>
       <c r="D12" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C12,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C12,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C12,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C12,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F12" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C12,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C12,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G12" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C12,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C12,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -1394,19 +1343,19 @@
         <v>83</v>
       </c>
       <c r="D13" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C13,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C13,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C13,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C13,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F13" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C13,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C13,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G13" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C13,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C13,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1421,19 +1370,19 @@
         <v>56</v>
       </c>
       <c r="D14" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C14,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C14,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C14,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C14,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F14" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C14,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C14,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G14" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C14,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C14,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1448,19 +1397,19 @@
         <v>56</v>
       </c>
       <c r="D15" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C15,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C15,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C15,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C15,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F15" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C15,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C15,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G15" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C15,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C15,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1475,19 +1424,19 @@
         <v>80</v>
       </c>
       <c r="D16" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C16,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C16,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C16,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C16,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F16" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C16,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C16,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G16" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C16,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C16,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -1502,19 +1451,19 @@
         <v>56</v>
       </c>
       <c r="D17" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C17,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C17,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C17,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C17,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F17" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C17,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C17,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G17" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C17,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C17,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1529,19 +1478,19 @@
         <v>84</v>
       </c>
       <c r="D18" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C18,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C18,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cincinnati</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C18,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C18,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F18" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C18,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C18,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.103099999999998</v>
       </c>
       <c r="G18" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C18,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C18,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-84.512</v>
       </c>
     </row>
@@ -1556,19 +1505,19 @@
         <v>85</v>
       </c>
       <c r="D19" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C19,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C19,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cleveland</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C19,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C19,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F19" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C19,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C19,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.499299999999998</v>
       </c>
       <c r="G19" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C19,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C19,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-81.694400000000002</v>
       </c>
     </row>
@@ -1583,19 +1532,19 @@
         <v>12</v>
       </c>
       <c r="D20" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C20,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C20,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C20,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C20,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F20" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C20,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C20,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G20" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C20,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C20,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1610,19 +1559,19 @@
         <v>12</v>
       </c>
       <c r="D21" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C21,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C21,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C21,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C21,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F21" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C21,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C21,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G21" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C21,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C21,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1637,19 +1586,19 @@
         <v>86</v>
       </c>
       <c r="D22" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C22,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C22,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C22,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C22,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F22" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C22,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C22,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G22" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C22,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C22,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1664,19 +1613,19 @@
         <v>87</v>
       </c>
       <c r="D23" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C23,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C23,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Washington</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C23,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C23,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>DC</v>
       </c>
       <c r="F23" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C23,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C23,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.907200000000003</v>
       </c>
       <c r="G23" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C23,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C23,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-77.036900000000003</v>
       </c>
     </row>
@@ -1691,19 +1640,19 @@
         <v>88</v>
       </c>
       <c r="D24" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C24,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C24,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C24,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C24,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F24" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C24,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C24,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G24" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C24,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C24,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -1718,19 +1667,19 @@
         <v>57</v>
       </c>
       <c r="D25" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C25,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C25,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C25,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C25,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F25" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C25,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C25,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G25" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C25,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C25,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -1745,19 +1694,19 @@
         <v>86</v>
       </c>
       <c r="D26" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C26,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C26,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C26,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C26,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F26" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C26,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C26,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G26" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C26,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C26,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1772,19 +1721,19 @@
         <v>60</v>
       </c>
       <c r="D27" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C27,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C27,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Ottawa</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C27,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C27,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F27" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C27,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C27,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.421500000000002</v>
       </c>
       <c r="G27" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C27,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C27,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.697199999999995</v>
       </c>
     </row>
@@ -1799,19 +1748,19 @@
         <v>86</v>
       </c>
       <c r="D28" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C28,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C28,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C28,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C28,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F28" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C28,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C28,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G28" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C28,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C28,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1826,19 +1775,19 @@
         <v>61</v>
       </c>
       <c r="D29" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C29,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C29,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C29,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C29,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F29" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C29,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C29,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G29" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C29,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C29,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -1853,19 +1802,19 @@
         <v>82</v>
       </c>
       <c r="D30" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C30,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C30,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C30,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C30,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F30" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C30,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C30,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G30" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C30,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C30,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -1880,19 +1829,19 @@
         <v>62</v>
       </c>
       <c r="D31" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C31,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C31,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C31,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C31,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F31" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C31,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C31,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G31" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C31,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C31,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -1907,19 +1856,19 @@
         <v>82</v>
       </c>
       <c r="D32" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C32,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C32,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C32,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C32,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F32" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C32,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C32,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G32" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C32,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C32,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -1934,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="D33" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C33,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C33,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C33,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C33,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F33" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C33,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C33,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G33" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C33,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C33,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -1961,19 +1910,19 @@
         <v>57</v>
       </c>
       <c r="D34" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C34,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C34,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C34,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C34,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F34" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C34,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C34,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G34" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C34,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C34,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -1988,19 +1937,19 @@
         <v>63</v>
       </c>
       <c r="D35" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C35,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C35,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C35,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C35,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F35" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C35,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C35,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G35" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C35,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C35,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -2015,19 +1964,19 @@
         <v>86</v>
       </c>
       <c r="D36" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C36,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C36,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C36,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C36,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F36" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C36,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C36,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G36" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C36,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C36,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2042,19 +1991,19 @@
         <v>64</v>
       </c>
       <c r="D37" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C37,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C37,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C37,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C37,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F37" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C37,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C37,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G37" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C37,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C37,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -2069,19 +2018,19 @@
         <v>12</v>
       </c>
       <c r="D38" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C38,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C38,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C38,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C38,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F38" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C38,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C38,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G38" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C38,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C38,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2096,19 +2045,19 @@
         <v>61</v>
       </c>
       <c r="D39" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C39,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C39,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C39,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C39,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F39" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C39,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C39,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G39" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C39,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C39,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2123,19 +2072,19 @@
         <v>57</v>
       </c>
       <c r="D40" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C40,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C40,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C40,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C40,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F40" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C40,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C40,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G40" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C40,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C40,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -2150,19 +2099,19 @@
         <v>65</v>
       </c>
       <c r="D41" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C41,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C41,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C41,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C41,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F41" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C41,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C41,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G41" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C41,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C41,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -2177,19 +2126,19 @@
         <v>89</v>
       </c>
       <c r="D42" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C42,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C42,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C42,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C42,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F42" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C42,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C42,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G42" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C42,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C42,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -2204,19 +2153,19 @@
         <v>66</v>
       </c>
       <c r="D43" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C43,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C43,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C43,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C43,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F43" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C43,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C43,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G43" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C43,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C43,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -2231,19 +2180,19 @@
         <v>86</v>
       </c>
       <c r="D44" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C44,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C44,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C44,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C44,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F44" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C44,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C44,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G44" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C44,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C44,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2258,19 +2207,19 @@
         <v>67</v>
       </c>
       <c r="D45" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C45,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C45,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C45,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C45,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F45" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C45,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C45,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G45" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C45,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C45,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -2285,19 +2234,19 @@
         <v>86</v>
       </c>
       <c r="D46" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C46,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C46,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C46,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C46,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F46" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C46,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C46,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G46" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C46,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C46,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2312,19 +2261,19 @@
         <v>67</v>
       </c>
       <c r="D47" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C47,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C47,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C47,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C47,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F47" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C47,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C47,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G47" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C47,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C47,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -2339,19 +2288,19 @@
         <v>86</v>
       </c>
       <c r="D48" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C48,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C48,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C48,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C48,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F48" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C48,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C48,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G48" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C48,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C48,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2366,19 +2315,19 @@
         <v>65</v>
       </c>
       <c r="D49" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C49,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C49,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C49,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C49,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F49" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C49,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C49,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G49" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C49,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C49,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -2393,19 +2342,19 @@
         <v>86</v>
       </c>
       <c r="D50" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C50,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C50,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C50,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C50,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F50" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C50,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C50,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G50" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C50,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C50,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2420,19 +2369,19 @@
         <v>62</v>
       </c>
       <c r="D51" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C51,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C51,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C51,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C51,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F51" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C51,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C51,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G51" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C51,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C51,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -2447,19 +2396,19 @@
         <v>84</v>
       </c>
       <c r="D52" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C52,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C52,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cincinnati</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C52,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C52,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F52" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C52,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C52,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.103099999999998</v>
       </c>
       <c r="G52" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C52,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C52,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-84.512</v>
       </c>
     </row>
@@ -2474,19 +2423,19 @@
         <v>61</v>
       </c>
       <c r="D53" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C53,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C53,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C53,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C53,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F53" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C53,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C53,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G53" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C53,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C53,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2501,19 +2450,19 @@
         <v>86</v>
       </c>
       <c r="D54" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C54,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C54,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C54,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C54,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F54" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C54,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C54,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G54" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C54,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C54,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2528,19 +2477,19 @@
         <v>62</v>
       </c>
       <c r="D55" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C55,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C55,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C55,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C55,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F55" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C55,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C55,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G55" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C55,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C55,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -2555,19 +2504,19 @@
         <v>57</v>
       </c>
       <c r="D56" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C56,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C56,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C56,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C56,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F56" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C56,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C56,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G56" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C56,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C56,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -2582,19 +2531,19 @@
         <v>64</v>
       </c>
       <c r="D57" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C57,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C57,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C57,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C57,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F57" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C57,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C57,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G57" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C57,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C57,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -2609,19 +2558,19 @@
         <v>86</v>
       </c>
       <c r="D58" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C58,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C58,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C58,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C58,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F58" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C58,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C58,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G58" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C58,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C58,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2636,19 +2585,19 @@
         <v>67</v>
       </c>
       <c r="D59" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C59,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C59,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C59,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C59,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F59" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C59,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C59,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G59" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C59,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C59,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -2663,19 +2612,19 @@
         <v>57</v>
       </c>
       <c r="D60" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C60,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C60,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C60,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C60,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F60" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C60,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C60,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G60" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C60,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C60,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -2690,19 +2639,19 @@
         <v>63</v>
       </c>
       <c r="D61" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C61,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C61,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C61,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C61,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F61" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C61,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C61,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G61" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C61,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C61,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -2717,19 +2666,19 @@
         <v>89</v>
       </c>
       <c r="D62" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C62,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C62,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C62,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C62,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F62" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C62,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C62,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G62" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C62,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C62,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -2744,19 +2693,19 @@
         <v>64</v>
       </c>
       <c r="D63" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C63,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C63,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C63,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C63,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F63" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C63,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C63,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G63" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C63,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C63,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -2771,19 +2720,19 @@
         <v>57</v>
       </c>
       <c r="D64" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C64,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C64,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C64,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C64,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F64" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C64,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C64,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G64" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C64,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C64,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -2798,19 +2747,19 @@
         <v>63</v>
       </c>
       <c r="D65" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C65,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C65,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C65,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C65,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F65" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C65,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C65,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G65" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C65,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C65,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -2825,19 +2774,19 @@
         <v>86</v>
       </c>
       <c r="D66" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C66,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C66,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C66,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C66,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F66" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C66,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C66,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G66" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C66,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C66,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -2852,19 +2801,19 @@
         <v>50</v>
       </c>
       <c r="D67" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C67,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C67,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C67,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C67,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F67" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C67,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C67,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G67" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C67,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C67,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -2879,19 +2828,19 @@
         <v>64</v>
       </c>
       <c r="D68" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C68,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C68,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C68,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C68,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F68" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C68,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C68,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G68" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C68,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C68,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -2906,19 +2855,19 @@
         <v>85</v>
       </c>
       <c r="D69" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C69,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C69,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cleveland</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C69,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C69,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F69" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C69,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C69,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.499299999999998</v>
       </c>
       <c r="G69" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C69,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C69,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-81.694400000000002</v>
       </c>
     </row>
@@ -2933,19 +2882,19 @@
         <v>47</v>
       </c>
       <c r="D70" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C70,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C70,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C70,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C70,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F70" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C70,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C70,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G70" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C70,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C70,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -2960,19 +2909,19 @@
         <v>64</v>
       </c>
       <c r="D71" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C71,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C71,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C71,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C71,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F71" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C71,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C71,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G71" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C71,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C71,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -2987,19 +2936,19 @@
         <v>86</v>
       </c>
       <c r="D72" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C72,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C72,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C72,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C72,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F72" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C72,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C72,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G72" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C72,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C72,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3014,19 +2963,19 @@
         <v>49</v>
       </c>
       <c r="D73" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C73,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C73,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C73,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C73,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F73" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C73,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C73,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G73" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C73,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C73,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -3041,19 +2990,19 @@
         <v>64</v>
       </c>
       <c r="D74" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C74,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C74,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C74,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C74,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F74" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C74,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C74,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G74" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C74,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C74,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -3068,19 +3017,19 @@
         <v>86</v>
       </c>
       <c r="D75" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C75,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C75,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C75,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C75,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F75" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C75,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C75,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G75" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C75,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C75,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3095,19 +3044,19 @@
         <v>49</v>
       </c>
       <c r="D76" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C76,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C76,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C76,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C76,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F76" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C76,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C76,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G76" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C76,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C76,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -3122,19 +3071,19 @@
         <v>67</v>
       </c>
       <c r="D77" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C77,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C77,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C77,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C77,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F77" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C77,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C77,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G77" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C77,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C77,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -3149,19 +3098,19 @@
         <v>86</v>
       </c>
       <c r="D78" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C78,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C78,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C78,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C78,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F78" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C78,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C78,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G78" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C78,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C78,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3176,19 +3125,19 @@
         <v>51</v>
       </c>
       <c r="D79" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C79,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C79,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Rochester</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C79,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C79,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F79" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C79,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C79,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.161000000000001</v>
       </c>
       <c r="G79" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C79,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C79,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-77.610900000000001</v>
       </c>
     </row>
@@ -3203,19 +3152,19 @@
         <v>64</v>
       </c>
       <c r="D80" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C80,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C80,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C80,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C80,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F80" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C80,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C80,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G80" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C80,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C80,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -3230,19 +3179,19 @@
         <v>86</v>
       </c>
       <c r="D81" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C81,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C81,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C81,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C81,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F81" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C81,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C81,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G81" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C81,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C81,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3257,19 +3206,19 @@
         <v>49</v>
       </c>
       <c r="D82" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C82,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C82,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C82,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C82,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F82" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C82,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C82,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G82" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C82,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C82,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -3284,19 +3233,19 @@
         <v>67</v>
       </c>
       <c r="D83" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C83,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C83,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C83,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C83,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F83" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C83,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C83,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G83" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C83,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C83,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -3311,19 +3260,19 @@
         <v>86</v>
       </c>
       <c r="D84" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C84,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C84,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C84,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C84,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F84" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C84,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C84,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G84" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C84,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C84,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3338,19 +3287,19 @@
         <v>49</v>
       </c>
       <c r="D85" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C85,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C85,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C85,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C85,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F85" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C85,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C85,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G85" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C85,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C85,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -3365,19 +3314,19 @@
         <v>63</v>
       </c>
       <c r="D86" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C86,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C86,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C86,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C86,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F86" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C86,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C86,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G86" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C86,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C86,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -3392,19 +3341,19 @@
         <v>12</v>
       </c>
       <c r="D87" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C87,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C87,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C87,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C87,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F87" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C87,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C87,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G87" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C87,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C87,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3419,19 +3368,19 @@
         <v>49</v>
       </c>
       <c r="D88" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C88,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C88,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C88,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C88,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F88" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C88,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C88,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G88" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C88,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C88,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -3446,19 +3395,19 @@
         <v>67</v>
       </c>
       <c r="D89" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C89,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C89,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C89,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C89,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F89" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C89,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C89,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G89" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C89,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C89,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -3473,19 +3422,19 @@
         <v>90</v>
       </c>
       <c r="D90" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C90,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C90,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C90,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C90,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F90" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C90,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C90,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G90" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C90,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C90,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3500,19 +3449,19 @@
         <v>30</v>
       </c>
       <c r="D91" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C91,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C91,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Syracuse</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C91,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C91,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F91" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C91,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C91,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.048099999999998</v>
       </c>
       <c r="G91" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C91,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C91,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.147400000000005</v>
       </c>
     </row>
@@ -3527,19 +3476,19 @@
         <v>67</v>
       </c>
       <c r="D92" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C92,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C92,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C92,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C92,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F92" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C92,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C92,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G92" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C92,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C92,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -3554,19 +3503,19 @@
         <v>86</v>
       </c>
       <c r="D93" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C93,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C93,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C93,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C93,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F93" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C93,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C93,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G93" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C93,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C93,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3581,19 +3530,19 @@
         <v>50</v>
       </c>
       <c r="D94" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C94,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C94,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C94,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C94,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F94" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C94,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C94,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G94" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C94,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C94,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -3608,19 +3557,19 @@
         <v>63</v>
       </c>
       <c r="D95" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C95,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C95,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C95,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C95,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F95" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C95,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C95,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G95" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C95,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C95,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -3635,19 +3584,19 @@
         <v>91</v>
       </c>
       <c r="D96" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C96,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C96,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Milwaukee</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C96,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C96,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WI</v>
       </c>
       <c r="F96" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C96,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C96,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.038899999999998</v>
       </c>
       <c r="G96" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C96,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C96,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.906499999999994</v>
       </c>
     </row>
@@ -3662,19 +3611,19 @@
         <v>37</v>
       </c>
       <c r="D97" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C97,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C97,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C97,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C97,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F97" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C97,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C97,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G97" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C97,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C97,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -3689,19 +3638,19 @@
         <v>63</v>
       </c>
       <c r="D98" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C98,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C98,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C98,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C98,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F98" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C98,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C98,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G98" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C98,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C98,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -3716,19 +3665,19 @@
         <v>86</v>
       </c>
       <c r="D99" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C99,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C99,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C99,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C99,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F99" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C99,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C99,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G99" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C99,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C99,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3743,19 +3692,19 @@
         <v>48</v>
       </c>
       <c r="D100" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C100,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C100,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C100,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C100,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F100" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C100,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C100,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G100" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C100,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C100,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -3770,19 +3719,19 @@
         <v>63</v>
       </c>
       <c r="D101" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C101,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C101,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C101,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C101,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F101" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C101,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C101,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G101" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C101,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C101,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -3797,19 +3746,19 @@
         <v>92</v>
       </c>
       <c r="D102" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C102,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C102,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C102,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C102,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F102" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C102,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C102,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G102" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C102,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C102,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -3824,19 +3773,19 @@
         <v>37</v>
       </c>
       <c r="D103" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C103,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C103,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C103,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C103,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F103" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C103,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C103,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G103" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C103,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C103,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -3851,19 +3800,19 @@
         <v>63</v>
       </c>
       <c r="D104" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C104,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C104,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C104,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C104,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F104" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C104,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C104,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G104" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C104,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C104,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -3878,19 +3827,19 @@
         <v>88</v>
       </c>
       <c r="D105" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C105,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C105,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C105,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C105,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F105" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C105,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C105,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G105" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C105,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C105,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -3905,19 +3854,19 @@
         <v>37</v>
       </c>
       <c r="D106" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C106,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C106,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C106,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C106,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F106" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C106,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C106,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G106" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C106,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C106,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -3932,19 +3881,19 @@
         <v>63</v>
       </c>
       <c r="D107" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C107,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C107,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C107,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C107,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F107" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C107,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C107,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G107" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C107,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C107,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -3959,19 +3908,19 @@
         <v>86</v>
       </c>
       <c r="D108" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C108,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C108,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C108,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C108,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F108" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C108,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C108,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G108" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C108,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C108,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -3986,19 +3935,19 @@
         <v>37</v>
       </c>
       <c r="D109" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C109,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C109,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C109,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C109,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F109" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C109,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C109,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G109" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C109,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C109,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4013,19 +3962,19 @@
         <v>65</v>
       </c>
       <c r="D110" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C110,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C110,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C110,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C110,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F110" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C110,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C110,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G110" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C110,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C110,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -4040,19 +3989,19 @@
         <v>86</v>
       </c>
       <c r="D111" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C111,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C111,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C111,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C111,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F111" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C111,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C111,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G111" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C111,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C111,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -4067,19 +4016,19 @@
         <v>37</v>
       </c>
       <c r="D112" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C112,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C112,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C112,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C112,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F112" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C112,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C112,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G112" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C112,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C112,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4094,19 +4043,19 @@
         <v>64</v>
       </c>
       <c r="D113" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C113,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C113,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C113,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C113,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F113" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C113,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C113,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G113" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C113,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C113,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -4121,19 +4070,19 @@
         <v>92</v>
       </c>
       <c r="D114" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C114,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C114,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C114,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C114,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F114" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C114,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C114,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G114" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C114,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C114,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -4148,19 +4097,19 @@
         <v>37</v>
       </c>
       <c r="D115" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C115,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C115,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C115,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C115,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F115" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C115,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C115,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G115" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C115,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C115,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4175,19 +4124,19 @@
         <v>64</v>
       </c>
       <c r="D116" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C116,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C116,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E116" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C116,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C116,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F116" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C116,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C116,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G116" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C116,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C116,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -4202,19 +4151,19 @@
         <v>57</v>
       </c>
       <c r="D117" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C117,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C117,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C117,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C117,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F117" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C117,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C117,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G117" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C117,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C117,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -4229,19 +4178,19 @@
         <v>37</v>
       </c>
       <c r="D118" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C118,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C118,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C118,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C118,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F118" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C118,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C118,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G118" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C118,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C118,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4256,19 +4205,19 @@
         <v>64</v>
       </c>
       <c r="D119" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C119,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C119,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E119" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C119,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C119,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F119" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C119,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C119,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G119" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C119,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C119,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -4283,19 +4232,19 @@
         <v>92</v>
       </c>
       <c r="D120" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C120,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C120,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C120,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C120,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F120" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C120,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C120,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G120" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C120,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C120,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -4310,19 +4259,19 @@
         <v>37</v>
       </c>
       <c r="D121" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C121,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C121,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C121,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C121,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F121" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C121,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C121,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G121" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C121,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C121,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4337,19 +4286,19 @@
         <v>63</v>
       </c>
       <c r="D122" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C122,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C122,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C122,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C122,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F122" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C122,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C122,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G122" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C122,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C122,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -4364,19 +4313,19 @@
         <v>93</v>
       </c>
       <c r="D123" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C123,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C123,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C123,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C123,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F123" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C123,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C123,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G123" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C123,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C123,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -4391,19 +4340,19 @@
         <v>37</v>
       </c>
       <c r="D124" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C124,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C124,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E124" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C124,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C124,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F124" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C124,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C124,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G124" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C124,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C124,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4418,19 +4367,19 @@
         <v>63</v>
       </c>
       <c r="D125" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C125,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C125,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E125" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C125,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C125,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F125" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C125,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C125,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G125" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C125,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C125,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -4445,19 +4394,19 @@
         <v>57</v>
       </c>
       <c r="D126" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C126,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C126,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E126" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C126,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C126,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F126" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C126,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C126,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G126" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C126,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C126,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -4472,19 +4421,19 @@
         <v>39</v>
       </c>
       <c r="D127" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C127,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C127,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E127" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C127,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C127,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F127" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C127,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C127,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G127" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C127,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C127,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -4499,19 +4448,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C128,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C128,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Green Bay</v>
       </c>
       <c r="E128" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C128,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C128,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WI</v>
       </c>
       <c r="F128" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C128,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C128,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.519199999999998</v>
       </c>
       <c r="G128" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C128,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C128,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-88.019800000000004</v>
       </c>
     </row>
@@ -4526,19 +4475,19 @@
         <v>64</v>
       </c>
       <c r="D129" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C129,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C129,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E129" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C129,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C129,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F129" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C129,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C129,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G129" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C129,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C129,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -4553,19 +4502,19 @@
         <v>89</v>
       </c>
       <c r="D130" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C130,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C130,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E130" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C130,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C130,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F130" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C130,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C130,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G130" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C130,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C130,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -4580,19 +4529,19 @@
         <v>37</v>
       </c>
       <c r="D131" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C131,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C131,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E131" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C131,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C131,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F131" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C131,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C131,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G131" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C131,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C131,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4607,19 +4556,19 @@
         <v>0</v>
       </c>
       <c r="D132" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C132,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C132,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Green Bay</v>
       </c>
       <c r="E132" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C132,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C132,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WI</v>
       </c>
       <c r="F132" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C132,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C132,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.519199999999998</v>
       </c>
       <c r="G132" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C132,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C132,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-88.019800000000004</v>
       </c>
     </row>
@@ -4634,19 +4583,19 @@
         <v>63</v>
       </c>
       <c r="D133" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C133,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C133,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E133" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C133,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C133,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F133" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C133,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C133,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G133" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C133,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C133,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -4661,19 +4610,19 @@
         <v>94</v>
       </c>
       <c r="D134" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C134,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C134,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E134" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C134,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C134,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F134" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C134,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C134,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G134" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C134,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C134,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -4688,19 +4637,19 @@
         <v>37</v>
       </c>
       <c r="D135" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C135,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C135,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E135" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C135,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C135,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F135" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C135,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C135,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G135" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C135,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C135,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4715,19 +4664,19 @@
         <v>1</v>
       </c>
       <c r="D136" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C136,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C136,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E136" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C136,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C136,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F136" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C136,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C136,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G136" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C136,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C136,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -4742,19 +4691,19 @@
         <v>63</v>
       </c>
       <c r="D137" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C137,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C137,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E137" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C137,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C137,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F137" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C137,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C137,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G137" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C137,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C137,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -4769,19 +4718,19 @@
         <v>93</v>
       </c>
       <c r="D138" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C138,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C138,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E138" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C138,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C138,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F138" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C138,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C138,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G138" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C138,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C138,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -4796,19 +4745,19 @@
         <v>40</v>
       </c>
       <c r="D139" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C139,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C139,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E139" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C139,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C139,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F139" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C139,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C139,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G139" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C139,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C139,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -4823,19 +4772,19 @@
         <v>2</v>
       </c>
       <c r="D140" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C140,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C140,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Kansas City</v>
       </c>
       <c r="E140" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C140,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C140,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F140" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C140,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C140,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.099699999999999</v>
       </c>
       <c r="G140" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C140,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C140,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-94.578599999999994</v>
       </c>
     </row>
@@ -4850,19 +4799,19 @@
         <v>62</v>
       </c>
       <c r="D141" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C141,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C141,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E141" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C141,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C141,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F141" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C141,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C141,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G141" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C141,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C141,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -4877,19 +4826,19 @@
         <v>88</v>
       </c>
       <c r="D142" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C142,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C142,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E142" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C142,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C142,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F142" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C142,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C142,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G142" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C142,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C142,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -4904,19 +4853,19 @@
         <v>46</v>
       </c>
       <c r="D143" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C143,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C143,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Milwaukee</v>
       </c>
       <c r="E143" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C143,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C143,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WI</v>
       </c>
       <c r="F143" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C143,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C143,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.038899999999998</v>
       </c>
       <c r="G143" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C143,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C143,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.906499999999994</v>
       </c>
     </row>
@@ -4931,19 +4880,19 @@
         <v>3</v>
       </c>
       <c r="D144" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C144,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C144,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E144" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C144,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C144,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F144" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C144,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C144,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G144" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C144,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C144,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -4958,19 +4907,19 @@
         <v>63</v>
       </c>
       <c r="D145" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C145,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C145,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E145" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C145,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C145,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F145" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C145,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C145,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G145" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C145,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C145,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -4985,19 +4934,19 @@
         <v>95</v>
       </c>
       <c r="D146" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C146,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C146,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E146" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C146,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C146,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F146" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C146,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C146,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G146" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C146,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C146,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -5012,19 +4961,19 @@
         <v>36</v>
       </c>
       <c r="D147" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C147,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C147,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E147" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C147,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C147,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F147" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C147,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C147,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G147" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C147,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C147,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -5039,19 +4988,19 @@
         <v>4</v>
       </c>
       <c r="D148" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C148,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C148,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E148" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C148,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C148,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F148" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C148,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C148,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G148" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C148,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C148,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -5066,19 +5015,19 @@
         <v>62</v>
       </c>
       <c r="D149" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C149,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C149,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E149" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C149,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C149,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F149" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C149,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C149,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G149" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C149,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C149,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -5093,19 +5042,19 @@
         <v>95</v>
       </c>
       <c r="D150" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C150,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C150,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E150" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C150,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C150,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F150" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C150,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C150,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G150" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C150,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C150,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -5120,19 +5069,19 @@
         <v>40</v>
       </c>
       <c r="D151" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C151,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C151,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E151" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C151,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C151,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F151" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C151,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C151,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G151" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C151,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C151,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -5147,19 +5096,19 @@
         <v>5</v>
       </c>
       <c r="D152" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C152,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C152,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E152" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C152,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C152,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F152" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C152,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C152,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G152" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C152,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C152,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -5174,19 +5123,19 @@
         <v>63</v>
       </c>
       <c r="D153" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C153,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C153,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E153" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C153,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C153,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F153" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C153,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C153,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G153" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C153,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C153,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -5201,19 +5150,19 @@
         <v>95</v>
       </c>
       <c r="D154" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C154,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C154,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E154" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C154,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C154,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F154" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C154,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C154,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G154" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C154,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C154,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -5228,19 +5177,19 @@
         <v>37</v>
       </c>
       <c r="D155" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C155,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C155,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E155" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C155,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C155,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F155" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C155,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C155,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G155" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C155,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C155,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -5255,19 +5204,19 @@
         <v>5</v>
       </c>
       <c r="D156" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C156,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C156,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E156" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C156,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C156,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F156" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C156,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C156,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G156" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C156,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C156,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -5282,19 +5231,19 @@
         <v>68</v>
       </c>
       <c r="D157" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C157,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C157,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E157" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C157,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C157,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F157" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C157,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C157,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G157" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C157,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C157,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -5309,19 +5258,19 @@
         <v>84</v>
       </c>
       <c r="D158" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C158,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C158,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cincinnati</v>
       </c>
       <c r="E158" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C158,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C158,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F158" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C158,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C158,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.103099999999998</v>
       </c>
       <c r="G158" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C158,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C158,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-84.512</v>
       </c>
     </row>
@@ -5336,19 +5285,19 @@
         <v>32</v>
       </c>
       <c r="D159" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C159,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C159,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E159" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C159,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C159,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F159" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C159,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C159,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G159" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C159,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C159,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -5363,19 +5312,19 @@
         <v>6</v>
       </c>
       <c r="D160" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C160,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C160,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E160" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C160,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C160,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F160" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C160,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C160,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G160" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C160,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C160,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -5390,19 +5339,19 @@
         <v>68</v>
       </c>
       <c r="D161" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C161,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C161,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E161" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C161,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C161,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F161" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C161,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C161,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G161" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C161,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C161,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -5417,19 +5366,19 @@
         <v>84</v>
       </c>
       <c r="D162" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C162,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C162,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cincinnati</v>
       </c>
       <c r="E162" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C162,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C162,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F162" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C162,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C162,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.103099999999998</v>
       </c>
       <c r="G162" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C162,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C162,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-84.512</v>
       </c>
     </row>
@@ -5444,19 +5393,19 @@
         <v>37</v>
       </c>
       <c r="D163" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C163,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C163,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E163" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C163,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C163,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F163" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C163,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C163,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G163" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C163,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C163,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -5471,19 +5420,19 @@
         <v>6</v>
       </c>
       <c r="D164" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C164,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C164,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E164" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C164,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C164,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F164" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C164,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C164,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G164" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C164,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C164,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -5498,19 +5447,19 @@
         <v>63</v>
       </c>
       <c r="D165" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C165,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C165,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E165" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C165,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C165,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F165" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C165,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C165,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G165" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C165,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C165,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -5525,19 +5474,19 @@
         <v>86</v>
       </c>
       <c r="D166" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C166,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C166,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E166" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C166,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C166,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F166" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C166,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C166,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G166" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C166,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C166,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -5552,19 +5501,19 @@
         <v>44</v>
       </c>
       <c r="D167" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C167,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C167,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Portland</v>
       </c>
       <c r="E167" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C167,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C167,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OR</v>
       </c>
       <c r="F167" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C167,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C167,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.523099999999999</v>
       </c>
       <c r="G167" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C167,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C167,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-122.6765</v>
       </c>
     </row>
@@ -5579,19 +5528,19 @@
         <v>7</v>
       </c>
       <c r="D168" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C168,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C168,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E168" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C168,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C168,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F168" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C168,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C168,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G168" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C168,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C168,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -5606,19 +5555,19 @@
         <v>63</v>
       </c>
       <c r="D169" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C169,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C169,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E169" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C169,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C169,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F169" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C169,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C169,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G169" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C169,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C169,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -5633,19 +5582,19 @@
         <v>86</v>
       </c>
       <c r="D170" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C170,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C170,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E170" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C170,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C170,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F170" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C170,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C170,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G170" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C170,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C170,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -5660,19 +5609,19 @@
         <v>45</v>
       </c>
       <c r="D171" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C171,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C171,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Washington</v>
       </c>
       <c r="E171" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C171,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C171,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>DC</v>
       </c>
       <c r="F171" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C171,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C171,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.907200000000003</v>
       </c>
       <c r="G171" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C171,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C171,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-77.036900000000003</v>
       </c>
     </row>
@@ -5687,19 +5636,19 @@
         <v>4</v>
       </c>
       <c r="D172" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C172,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C172,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E172" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C172,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C172,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F172" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C172,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C172,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G172" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C172,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C172,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -5714,19 +5663,19 @@
         <v>63</v>
       </c>
       <c r="D173" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C173,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C173,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E173" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C173,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C173,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F173" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C173,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C173,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G173" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C173,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C173,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -5741,19 +5690,19 @@
         <v>88</v>
       </c>
       <c r="D174" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C174,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C174,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E174" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C174,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C174,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F174" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C174,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C174,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G174" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C174,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C174,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -5768,19 +5717,19 @@
         <v>42</v>
       </c>
       <c r="D175" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C175,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C175,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Seattle</v>
       </c>
       <c r="E175" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C175,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C175,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WA</v>
       </c>
       <c r="F175" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C175,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C175,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>47.606200000000001</v>
       </c>
       <c r="G175" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C175,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C175,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-122.3321</v>
       </c>
     </row>
@@ -5795,19 +5744,19 @@
         <v>6</v>
       </c>
       <c r="D176" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C176,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C176,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E176" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C176,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C176,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F176" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C176,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C176,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G176" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C176,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C176,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -5822,19 +5771,19 @@
         <v>63</v>
       </c>
       <c r="D177" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C177,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C177,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E177" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C177,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C177,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F177" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C177,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C177,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G177" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C177,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C177,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -5849,19 +5798,19 @@
         <v>96</v>
       </c>
       <c r="D178" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C178,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C178,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E178" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C178,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C178,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F178" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C178,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C178,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G178" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C178,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C178,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -5876,19 +5825,19 @@
         <v>36</v>
       </c>
       <c r="D179" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C179,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C179,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E179" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C179,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C179,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F179" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C179,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C179,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G179" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C179,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C179,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -5903,19 +5852,19 @@
         <v>6</v>
       </c>
       <c r="D180" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C180,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C180,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E180" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C180,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C180,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F180" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C180,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C180,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G180" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C180,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C180,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -5930,19 +5879,19 @@
         <v>69</v>
       </c>
       <c r="D181" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C181,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C181,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E181" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C181,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C181,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F181" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C181,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C181,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G181" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C181,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C181,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -5957,19 +5906,19 @@
         <v>92</v>
       </c>
       <c r="D182" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C182,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C182,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E182" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C182,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C182,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F182" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C182,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C182,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G182" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C182,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C182,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -5984,19 +5933,19 @@
         <v>37</v>
       </c>
       <c r="D183" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C183,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C183,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E183" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C183,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C183,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F183" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C183,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C183,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G183" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C183,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C183,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -6011,19 +5960,19 @@
         <v>7</v>
       </c>
       <c r="D184" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C184,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C184,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E184" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C184,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C184,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F184" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C184,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C184,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G184" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C184,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C184,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -6038,19 +5987,19 @@
         <v>69</v>
       </c>
       <c r="D185" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C185,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C185,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E185" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C185,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C185,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F185" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C185,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C185,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G185" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C185,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C185,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -6065,19 +6014,19 @@
         <v>57</v>
       </c>
       <c r="D186" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C186,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C186,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E186" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C186,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C186,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F186" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C186,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C186,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G186" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C186,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C186,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -6092,19 +6041,19 @@
         <v>36</v>
       </c>
       <c r="D187" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C187,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C187,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E187" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C187,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C187,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F187" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C187,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C187,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G187" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C187,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C187,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -6119,19 +6068,19 @@
         <v>8</v>
       </c>
       <c r="D188" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C188,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C188,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E188" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C188,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C188,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F188" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C188,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C188,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G188" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C188,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C188,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -6146,19 +6095,19 @@
         <v>69</v>
       </c>
       <c r="D189" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C189,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C189,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E189" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C189,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C189,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F189" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C189,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C189,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G189" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C189,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C189,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -6173,19 +6122,19 @@
         <v>93</v>
       </c>
       <c r="D190" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C190,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C190,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E190" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C190,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C190,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F190" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C190,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C190,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G190" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C190,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C190,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -6200,19 +6149,19 @@
         <v>39</v>
       </c>
       <c r="D191" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C191,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C191,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E191" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C191,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C191,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F191" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C191,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C191,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G191" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C191,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C191,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -6227,19 +6176,19 @@
         <v>9</v>
       </c>
       <c r="D192" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C192,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C192,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Washington</v>
       </c>
       <c r="E192" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C192,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C192,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>DC</v>
       </c>
       <c r="F192" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C192,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C192,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.907200000000003</v>
       </c>
       <c r="G192" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C192,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C192,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-77.036900000000003</v>
       </c>
     </row>
@@ -6254,19 +6203,19 @@
         <v>69</v>
       </c>
       <c r="D193" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C193,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C193,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E193" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C193,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C193,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F193" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C193,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C193,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G193" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C193,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C193,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -6281,19 +6230,19 @@
         <v>89</v>
       </c>
       <c r="D194" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C194,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C194,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E194" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C194,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C194,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F194" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C194,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C194,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G194" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C194,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C194,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -6308,19 +6257,19 @@
         <v>37</v>
       </c>
       <c r="D195" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C195,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C195,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E195" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C195,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C195,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F195" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C195,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C195,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G195" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C195,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C195,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -6335,19 +6284,19 @@
         <v>10</v>
       </c>
       <c r="D196" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C196,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C196,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E196" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C196,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C196,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F196" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C196,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C196,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G196" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C196,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C196,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -6362,19 +6311,19 @@
         <v>70</v>
       </c>
       <c r="D197" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C197,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C197,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Edmonton</v>
       </c>
       <c r="E197" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C197,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C197,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F197" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C197,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C197,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>53.544400000000003</v>
       </c>
       <c r="G197" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C197,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C197,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-113.4909</v>
       </c>
     </row>
@@ -6389,19 +6338,19 @@
         <v>97</v>
       </c>
       <c r="D198" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C198,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C198,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Kansas City</v>
       </c>
       <c r="E198" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C198,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C198,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F198" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C198,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C198,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.099699999999999</v>
       </c>
       <c r="G198" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C198,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C198,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-94.578599999999994</v>
       </c>
     </row>
@@ -6416,19 +6365,19 @@
         <v>36</v>
       </c>
       <c r="D199" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C199,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C199,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E199" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C199,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C199,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F199" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C199,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C199,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G199" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C199,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C199,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -6443,19 +6392,19 @@
         <v>8</v>
       </c>
       <c r="D200" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C200,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C200,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E200" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C200,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C200,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F200" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C200,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C200,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G200" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C200,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C200,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -6470,19 +6419,19 @@
         <v>70</v>
       </c>
       <c r="D201" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C201,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C201,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Edmonton</v>
       </c>
       <c r="E201" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C201,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C201,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F201" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C201,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C201,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>53.544400000000003</v>
       </c>
       <c r="G201" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C201,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C201,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-113.4909</v>
       </c>
     </row>
@@ -6497,19 +6446,19 @@
         <v>94</v>
       </c>
       <c r="D202" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C202,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C202,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E202" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C202,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C202,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F202" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C202,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C202,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G202" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C202,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C202,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -6524,19 +6473,19 @@
         <v>37</v>
       </c>
       <c r="D203" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C203,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C203,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E203" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C203,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C203,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F203" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C203,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C203,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G203" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C203,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C203,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -6551,19 +6500,19 @@
         <v>11</v>
       </c>
       <c r="D204" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C204,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C204,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E204" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C204,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C204,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F204" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C204,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C204,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G204" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C204,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C204,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -6578,19 +6527,19 @@
         <v>63</v>
       </c>
       <c r="D205" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C205,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C205,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E205" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C205,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C205,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F205" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C205,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C205,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G205" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C205,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C205,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -6605,19 +6554,19 @@
         <v>98</v>
       </c>
       <c r="D206" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C206,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C206,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E206" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C206,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C206,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F206" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C206,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C206,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G206" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C206,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C206,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -6632,19 +6581,19 @@
         <v>36</v>
       </c>
       <c r="D207" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C207,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C207,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E207" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C207,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C207,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F207" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C207,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C207,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G207" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C207,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C207,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -6659,19 +6608,19 @@
         <v>12</v>
       </c>
       <c r="D208" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C208,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C208,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E208" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C208,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C208,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F208" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C208,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C208,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G208" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C208,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C208,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -6686,19 +6635,19 @@
         <v>70</v>
       </c>
       <c r="D209" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C209,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C209,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Edmonton</v>
       </c>
       <c r="E209" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C209,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C209,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F209" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C209,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C209,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>53.544400000000003</v>
       </c>
       <c r="G209" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C209,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C209,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-113.4909</v>
       </c>
     </row>
@@ -6713,19 +6662,19 @@
         <v>92</v>
       </c>
       <c r="D210" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C210,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C210,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E210" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C210,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C210,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F210" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C210,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C210,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G210" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C210,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C210,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -6740,19 +6689,19 @@
         <v>36</v>
       </c>
       <c r="D211" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C211,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C211,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E211" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C211,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C211,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F211" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C211,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C211,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G211" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C211,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C211,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -6767,19 +6716,19 @@
         <v>9</v>
       </c>
       <c r="D212" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C212,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C212,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Washington</v>
       </c>
       <c r="E212" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C212,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C212,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>DC</v>
       </c>
       <c r="F212" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C212,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C212,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.907200000000003</v>
       </c>
       <c r="G212" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C212,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C212,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-77.036900000000003</v>
       </c>
     </row>
@@ -6794,19 +6743,19 @@
         <v>70</v>
       </c>
       <c r="D213" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C213,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C213,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Edmonton</v>
       </c>
       <c r="E213" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C213,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C213,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F213" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C213,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C213,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>53.544400000000003</v>
       </c>
       <c r="G213" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C213,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C213,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-113.4909</v>
       </c>
     </row>
@@ -6821,19 +6770,19 @@
         <v>95</v>
       </c>
       <c r="D214" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C214,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C214,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E214" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C214,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C214,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F214" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C214,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C214,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G214" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C214,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C214,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -6848,19 +6797,19 @@
         <v>38</v>
       </c>
       <c r="D215" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C215,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C215,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E215" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C215,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C215,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F215" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C215,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C215,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G215" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C215,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C215,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -6875,19 +6824,19 @@
         <v>8</v>
       </c>
       <c r="D216" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C216,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C216,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E216" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C216,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C216,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F216" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C216,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C216,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G216" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C216,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C216,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -6902,19 +6851,19 @@
         <v>71</v>
       </c>
       <c r="D217" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C217,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C217,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Calgary</v>
       </c>
       <c r="E217" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C217,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C217,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F217" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C217,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C217,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>51.0486</v>
       </c>
       <c r="G217" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C217,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C217,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-114.07080000000001</v>
       </c>
     </row>
@@ -6929,19 +6878,19 @@
         <v>84</v>
       </c>
       <c r="D218" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C218,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C218,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cincinnati</v>
       </c>
       <c r="E218" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C218,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C218,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F218" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C218,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C218,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.103099999999998</v>
       </c>
       <c r="G218" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C218,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C218,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-84.512</v>
       </c>
     </row>
@@ -6956,19 +6905,19 @@
         <v>38</v>
       </c>
       <c r="D219" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C219,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C219,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E219" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C219,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C219,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F219" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C219,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C219,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G219" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C219,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C219,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -6983,19 +6932,19 @@
         <v>8</v>
       </c>
       <c r="D220" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C220,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C220,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E220" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C220,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C220,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F220" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C220,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C220,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G220" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C220,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C220,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -7010,19 +6959,19 @@
         <v>70</v>
       </c>
       <c r="D221" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C221,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C221,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Edmonton</v>
       </c>
       <c r="E221" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C221,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C221,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F221" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C221,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C221,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>53.544400000000003</v>
       </c>
       <c r="G221" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C221,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C221,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-113.4909</v>
       </c>
     </row>
@@ -7037,19 +6986,19 @@
         <v>98</v>
       </c>
       <c r="D222" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C222,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C222,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Minneapolis</v>
       </c>
       <c r="E222" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C222,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C222,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MN</v>
       </c>
       <c r="F222" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C222,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C222,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.977800000000002</v>
       </c>
       <c r="G222" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C222,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C222,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-93.265000000000001</v>
       </c>
     </row>
@@ -7064,19 +7013,19 @@
         <v>41</v>
       </c>
       <c r="D223" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C223,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C223,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E223" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C223,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C223,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F223" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C223,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C223,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G223" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C223,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C223,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -7091,19 +7040,19 @@
         <v>12</v>
       </c>
       <c r="D224" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C224,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C224,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E224" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C224,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C224,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F224" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C224,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C224,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G224" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C224,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C224,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -7118,19 +7067,19 @@
         <v>59</v>
       </c>
       <c r="D225" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C225,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C225,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E225" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C225,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C225,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F225" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C225,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C225,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G225" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C225,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C225,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -7145,19 +7094,19 @@
         <v>99</v>
       </c>
       <c r="D226" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C226,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C226,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E226" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C226,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C226,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F226" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C226,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C226,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G226" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C226,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C226,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -7172,19 +7121,19 @@
         <v>41</v>
       </c>
       <c r="D227" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C227,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C227,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E227" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C227,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C227,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F227" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C227,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C227,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G227" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C227,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C227,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -7199,19 +7148,19 @@
         <v>9</v>
       </c>
       <c r="D228" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C228,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C228,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Washington</v>
       </c>
       <c r="E228" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C228,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C228,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>DC</v>
       </c>
       <c r="F228" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C228,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C228,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.907200000000003</v>
       </c>
       <c r="G228" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C228,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C228,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-77.036900000000003</v>
       </c>
     </row>
@@ -7226,19 +7175,19 @@
         <v>59</v>
       </c>
       <c r="D229" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C229,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C229,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E229" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C229,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C229,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F229" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C229,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C229,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G229" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C229,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C229,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -7253,19 +7202,19 @@
         <v>99</v>
       </c>
       <c r="D230" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C230,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C230,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Toronto</v>
       </c>
       <c r="E230" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C230,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C230,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F230" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C230,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C230,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>43.653199999999998</v>
       </c>
       <c r="G230" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C230,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C230,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.383200000000002</v>
       </c>
     </row>
@@ -7280,19 +7229,19 @@
         <v>41</v>
       </c>
       <c r="D231" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C231,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C231,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E231" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C231,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C231,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F231" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C231,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C231,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G231" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C231,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C231,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -7307,19 +7256,19 @@
         <v>4</v>
       </c>
       <c r="D232" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C232,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C232,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E232" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C232,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C232,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F232" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C232,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C232,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G232" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C232,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C232,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -7334,19 +7283,19 @@
         <v>63</v>
       </c>
       <c r="D233" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C233,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C233,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Montreal</v>
       </c>
       <c r="E233" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C233,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C233,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CAN</v>
       </c>
       <c r="F233" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C233,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C233,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>45.5017</v>
       </c>
       <c r="G233" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C233,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C233,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-73.567300000000003</v>
       </c>
     </row>
@@ -7375,19 +7324,19 @@
         <v>43</v>
       </c>
       <c r="D235" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C235,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C235,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Houston</v>
       </c>
       <c r="E235" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C235,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C235,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F235" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C235,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C235,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.760400000000001</v>
       </c>
       <c r="G235" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C235,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C235,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-95.369799999999998</v>
       </c>
     </row>
@@ -7402,19 +7351,19 @@
         <v>4</v>
       </c>
       <c r="D236" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C236,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C236,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E236" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C236,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C236,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F236" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C236,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C236,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G236" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C236,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C236,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -7429,19 +7378,19 @@
         <v>61</v>
       </c>
       <c r="D237" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C237,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C237,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E237" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C237,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C237,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F237" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C237,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C237,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G237" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C237,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C237,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -7456,19 +7405,19 @@
         <v>100</v>
       </c>
       <c r="D238" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C238,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C238,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Atlanta</v>
       </c>
       <c r="E238" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C238,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C238,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>GA</v>
       </c>
       <c r="F238" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C238,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C238,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>33.749000000000002</v>
       </c>
       <c r="G238" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C238,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C238,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-84.388000000000005</v>
       </c>
     </row>
@@ -7483,19 +7432,19 @@
         <v>43</v>
       </c>
       <c r="D239" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C239,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C239,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Houston</v>
       </c>
       <c r="E239" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C239,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C239,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F239" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C239,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C239,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.760400000000001</v>
       </c>
       <c r="G239" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C239,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C239,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-95.369799999999998</v>
       </c>
     </row>
@@ -7510,19 +7459,19 @@
         <v>8</v>
       </c>
       <c r="D240" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C240,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C240,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E240" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C240,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C240,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F240" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C240,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C240,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G240" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C240,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C240,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -7537,19 +7486,19 @@
         <v>72</v>
       </c>
       <c r="D241" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C241,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C241,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Newark</v>
       </c>
       <c r="E241" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C241,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C241,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NJ</v>
       </c>
       <c r="F241" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C241,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C241,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.735700000000001</v>
       </c>
       <c r="G241" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C241,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C241,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.172399999999996</v>
       </c>
     </row>
@@ -7564,19 +7513,19 @@
         <v>86</v>
       </c>
       <c r="D242" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C242,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C242,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E242" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C242,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C242,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F242" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C242,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C242,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G242" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C242,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C242,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -7591,19 +7540,19 @@
         <v>41</v>
       </c>
       <c r="D243" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C243,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C243,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E243" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C243,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C243,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F243" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C243,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C243,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G243" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C243,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C243,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -7618,19 +7567,19 @@
         <v>4</v>
       </c>
       <c r="D244" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C244,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C244,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E244" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C244,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C244,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F244" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C244,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C244,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G244" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C244,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C244,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -7645,19 +7594,19 @@
         <v>73</v>
       </c>
       <c r="D245" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C245,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C245,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Denver</v>
       </c>
       <c r="E245" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C245,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C245,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CO</v>
       </c>
       <c r="F245" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C245,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C245,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.739199999999997</v>
       </c>
       <c r="G245" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C245,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C245,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-104.9903</v>
       </c>
     </row>
@@ -7672,19 +7621,19 @@
         <v>55</v>
       </c>
       <c r="D246" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C246,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C246,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E246" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C246,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C246,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F246" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C246,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C246,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G246" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C246,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C246,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -7699,19 +7648,19 @@
         <v>41</v>
       </c>
       <c r="D247" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C247,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C247,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E247" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C247,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C247,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F247" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C247,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C247,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G247" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C247,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C247,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -7726,19 +7675,19 @@
         <v>0</v>
       </c>
       <c r="D248" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C248,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C248,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Green Bay</v>
       </c>
       <c r="E248" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C248,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C248,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WI</v>
       </c>
       <c r="F248" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C248,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C248,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.519199999999998</v>
       </c>
       <c r="G248" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C248,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C248,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-88.019800000000004</v>
       </c>
     </row>
@@ -7753,19 +7702,19 @@
         <v>67</v>
       </c>
       <c r="D249" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C249,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C249,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E249" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C249,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C249,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F249" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C249,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C249,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G249" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C249,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C249,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -7780,19 +7729,19 @@
         <v>86</v>
       </c>
       <c r="D250" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C250,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C250,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E250" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C250,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C250,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F250" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C250,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C250,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G250" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C250,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C250,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -7807,19 +7756,19 @@
         <v>41</v>
       </c>
       <c r="D251" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C251,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C251,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E251" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C251,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C251,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F251" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C251,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C251,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G251" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C251,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C251,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -7834,19 +7783,19 @@
         <v>13</v>
       </c>
       <c r="D252" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C252,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C252,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Denver</v>
       </c>
       <c r="E252" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C252,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C252,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CO</v>
       </c>
       <c r="F252" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C252,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C252,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.739199999999997</v>
       </c>
       <c r="G252" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C252,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C252,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-104.9903</v>
       </c>
     </row>
@@ -7861,19 +7810,19 @@
         <v>67</v>
       </c>
       <c r="D253" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C253,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C253,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E253" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C253,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C253,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F253" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C253,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C253,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G253" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C253,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C253,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -7888,19 +7837,19 @@
         <v>86</v>
       </c>
       <c r="D254" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C254,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C254,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E254" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C254,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C254,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F254" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C254,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C254,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G254" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C254,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C254,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -7915,19 +7864,19 @@
         <v>33</v>
       </c>
       <c r="D255" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C255,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C255,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Antonio</v>
       </c>
       <c r="E255" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C255,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C255,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F255" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C255,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C255,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.424099999999999</v>
       </c>
       <c r="G255" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C255,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C255,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-98.493600000000001</v>
       </c>
     </row>
@@ -7942,19 +7891,19 @@
         <v>13</v>
       </c>
       <c r="D256" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C256,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C256,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Denver</v>
       </c>
       <c r="E256" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C256,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C256,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CO</v>
       </c>
       <c r="F256" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C256,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C256,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.739199999999997</v>
       </c>
       <c r="G256" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C256,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C256,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-104.9903</v>
       </c>
     </row>
@@ -7969,19 +7918,19 @@
         <v>74</v>
       </c>
       <c r="D257" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C257,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C257,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E257" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C257,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C257,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F257" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C257,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C257,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G257" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C257,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C257,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -7996,19 +7945,19 @@
         <v>86</v>
       </c>
       <c r="D258" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C258,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C258,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E258" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C258,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C258,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F258" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C258,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C258,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G258" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C258,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C258,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -8023,19 +7972,19 @@
         <v>36</v>
       </c>
       <c r="D259" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C259,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C259,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E259" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C259,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C259,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F259" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C259,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C259,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G259" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C259,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C259,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -8050,19 +7999,19 @@
         <v>14</v>
       </c>
       <c r="D260" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C260,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C260,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E260" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C260,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C260,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F260" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C260,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C260,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G260" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C260,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C260,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -8077,19 +8026,19 @@
         <v>72</v>
       </c>
       <c r="D261" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C261,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C261,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Newark</v>
       </c>
       <c r="E261" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C261,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C261,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NJ</v>
       </c>
       <c r="F261" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C261,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C261,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.735700000000001</v>
       </c>
       <c r="G261" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C261,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C261,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.172399999999996</v>
       </c>
     </row>
@@ -8104,19 +8053,19 @@
         <v>101</v>
       </c>
       <c r="D262" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C262,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C262,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Phoenix</v>
       </c>
       <c r="E262" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C262,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C262,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>AZ</v>
       </c>
       <c r="F262" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C262,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C262,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>33.448399999999999</v>
       </c>
       <c r="G262" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C262,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C262,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.074</v>
       </c>
     </row>
@@ -8131,19 +8080,19 @@
         <v>36</v>
       </c>
       <c r="D263" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C263,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C263,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E263" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C263,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C263,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F263" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C263,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C263,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G263" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C263,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C263,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -8158,19 +8107,19 @@
         <v>15</v>
       </c>
       <c r="D264" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C264,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C264,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E264" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C264,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C264,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F264" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C264,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C264,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G264" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C264,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C264,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -8185,19 +8134,19 @@
         <v>73</v>
       </c>
       <c r="D265" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C265,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C265,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Denver</v>
       </c>
       <c r="E265" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C265,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C265,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CO</v>
       </c>
       <c r="F265" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C265,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C265,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.739199999999997</v>
       </c>
       <c r="G265" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C265,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C265,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-104.9903</v>
       </c>
     </row>
@@ -8212,19 +8161,19 @@
         <v>54</v>
       </c>
       <c r="D266" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C266,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C266,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Anaheim</v>
       </c>
       <c r="E266" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C266,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C266,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F266" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C266,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C266,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>33.835299999999997</v>
       </c>
       <c r="G266" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C266,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C266,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-117.9145</v>
       </c>
     </row>
@@ -8239,19 +8188,19 @@
         <v>36</v>
       </c>
       <c r="D267" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C267,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C267,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E267" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C267,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C267,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F267" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C267,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C267,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G267" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C267,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C267,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -8266,19 +8215,19 @@
         <v>16</v>
       </c>
       <c r="D268" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C268,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C268,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E268" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C268,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C268,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F268" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C268,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C268,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G268" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C268,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C268,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -8293,19 +8242,19 @@
         <v>67</v>
       </c>
       <c r="D269" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C269,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C269,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E269" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C269,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C269,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F269" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C269,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C269,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G269" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C269,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C269,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -8320,19 +8269,19 @@
         <v>55</v>
       </c>
       <c r="D270" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C270,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C270,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E270" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C270,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C270,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F270" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C270,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C270,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G270" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C270,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C270,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -8347,19 +8296,19 @@
         <v>33</v>
       </c>
       <c r="D271" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C271,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C271,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Antonio</v>
       </c>
       <c r="E271" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C271,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C271,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F271" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C271,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C271,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.424099999999999</v>
       </c>
       <c r="G271" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C271,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C271,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-98.493600000000001</v>
       </c>
     </row>
@@ -8374,19 +8323,19 @@
         <v>17</v>
       </c>
       <c r="D272" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C272,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C272,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Tampa</v>
       </c>
       <c r="E272" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C272,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C272,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F272" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C272,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C272,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>27.763400000000001</v>
       </c>
       <c r="G272" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C272,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C272,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-82.543700000000001</v>
       </c>
     </row>
@@ -8401,19 +8350,19 @@
         <v>72</v>
       </c>
       <c r="D273" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C273,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C273,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Newark</v>
       </c>
       <c r="E273" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C273,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C273,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NJ</v>
       </c>
       <c r="F273" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C273,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C273,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.735700000000001</v>
       </c>
       <c r="G273" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C273,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C273,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.172399999999996</v>
       </c>
     </row>
@@ -8428,19 +8377,19 @@
         <v>56</v>
       </c>
       <c r="D274" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C274,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C274,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E274" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C274,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C274,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F274" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C274,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C274,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G274" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C274,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C274,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -8455,19 +8404,19 @@
         <v>38</v>
       </c>
       <c r="D275" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C275,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C275,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E275" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C275,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C275,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F275" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C275,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C275,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G275" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C275,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C275,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -8482,19 +8431,19 @@
         <v>16</v>
       </c>
       <c r="D276" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C276,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C276,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E276" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C276,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C276,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F276" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C276,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C276,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G276" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C276,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C276,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -8509,19 +8458,19 @@
         <v>75</v>
       </c>
       <c r="D277" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C277,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C277,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Tampa</v>
       </c>
       <c r="E277" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C277,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C277,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F277" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C277,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C277,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>27.763400000000001</v>
       </c>
       <c r="G277" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C277,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C277,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-82.543700000000001</v>
       </c>
     </row>
@@ -8536,19 +8485,19 @@
         <v>80</v>
       </c>
       <c r="D278" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C278,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C278,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E278" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C278,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C278,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F278" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C278,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C278,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G278" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C278,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C278,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -8563,19 +8512,19 @@
         <v>33</v>
       </c>
       <c r="D279" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C279,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C279,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Antonio</v>
       </c>
       <c r="E279" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C279,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C279,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F279" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C279,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C279,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.424099999999999</v>
       </c>
       <c r="G279" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C279,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C279,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-98.493600000000001</v>
       </c>
     </row>
@@ -8590,19 +8539,19 @@
         <v>16</v>
       </c>
       <c r="D280" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C280,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C280,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E280" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C280,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C280,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F280" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C280,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C280,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G280" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C280,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C280,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -8631,19 +8580,19 @@
         <v>57</v>
       </c>
       <c r="D282" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C282,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C282,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E282" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C282,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C282,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F282" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C282,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C282,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G282" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C282,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C282,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -8658,19 +8607,19 @@
         <v>34</v>
       </c>
       <c r="D283" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C283,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C283,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E283" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C283,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C283,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F283" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C283,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C283,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G283" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C283,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C283,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -8685,19 +8634,19 @@
         <v>6</v>
       </c>
       <c r="D284" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C284,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C284,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E284" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C284,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C284,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F284" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C284,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C284,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G284" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C284,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C284,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -8712,19 +8661,19 @@
         <v>76</v>
       </c>
       <c r="D285" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C285,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C285,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Raleigh</v>
       </c>
       <c r="E285" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C285,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C285,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NC</v>
       </c>
       <c r="F285" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C285,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C285,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>35.779600000000002</v>
       </c>
       <c r="G285" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C285,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C285,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-78.638199999999998</v>
       </c>
     </row>
@@ -8739,19 +8688,19 @@
         <v>56</v>
       </c>
       <c r="D286" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C286,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C286,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E286" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C286,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C286,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F286" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C286,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C286,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G286" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C286,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C286,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -8766,19 +8715,19 @@
         <v>33</v>
       </c>
       <c r="D287" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C287,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C287,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Antonio</v>
       </c>
       <c r="E287" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C287,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C287,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F287" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C287,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C287,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.424099999999999</v>
       </c>
       <c r="G287" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C287,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C287,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-98.493600000000001</v>
       </c>
     </row>
@@ -8793,19 +8742,19 @@
         <v>18</v>
       </c>
       <c r="D288" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C288,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C288,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Indianapolis</v>
       </c>
       <c r="E288" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C288,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C288,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IN</v>
       </c>
       <c r="F288" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C288,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C288,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.7684</v>
       </c>
       <c r="G288" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C288,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C288,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-86.158100000000005</v>
       </c>
     </row>
@@ -8820,19 +8769,19 @@
         <v>77</v>
       </c>
       <c r="D289" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C289,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C289,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Anaheim</v>
       </c>
       <c r="E289" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C289,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C289,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F289" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C289,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C289,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>33.835299999999997</v>
       </c>
       <c r="G289" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C289,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C289,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-117.9145</v>
       </c>
     </row>
@@ -8847,19 +8796,19 @@
         <v>96</v>
       </c>
       <c r="D290" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C290,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C290,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Philadelphia</v>
       </c>
       <c r="E290" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C290,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C290,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F290" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C290,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C290,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.952599999999997</v>
       </c>
       <c r="G290" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C290,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C290,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-75.165199999999999</v>
       </c>
     </row>
@@ -8874,19 +8823,19 @@
         <v>37</v>
       </c>
       <c r="D291" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C291,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C291,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E291" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C291,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C291,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F291" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C291,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C291,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G291" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C291,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C291,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -8901,19 +8850,19 @@
         <v>12</v>
       </c>
       <c r="D292" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C292,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C292,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E292" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C292,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C292,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F292" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C292,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C292,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G292" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C292,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C292,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -8928,19 +8877,19 @@
         <v>67</v>
       </c>
       <c r="D293" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C293,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C293,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Detroit</v>
       </c>
       <c r="E293" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C293,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C293,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MI</v>
       </c>
       <c r="F293" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C293,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C293,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.331400000000002</v>
       </c>
       <c r="G293" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C293,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C293,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-83.0458</v>
       </c>
     </row>
@@ -8955,19 +8904,19 @@
         <v>86</v>
       </c>
       <c r="D294" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C294,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C294,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E294" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C294,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C294,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F294" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C294,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C294,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G294" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C294,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C294,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -8982,19 +8931,19 @@
         <v>36</v>
       </c>
       <c r="D295" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C295,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C295,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E295" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C295,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C295,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F295" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C295,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C295,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G295" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C295,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C295,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -9009,19 +8958,19 @@
         <v>6</v>
       </c>
       <c r="D296" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C296,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C296,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E296" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C296,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C296,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F296" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C296,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C296,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G296" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C296,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C296,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -9036,19 +8985,19 @@
         <v>59</v>
       </c>
       <c r="D297" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C297,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C297,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E297" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C297,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C297,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F297" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C297,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C297,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G297" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C297,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C297,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -9063,19 +9012,19 @@
         <v>102</v>
       </c>
       <c r="D298" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C298,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C298,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E298" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C298,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C298,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F298" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C298,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C298,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G298" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C298,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C298,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -9090,19 +9039,19 @@
         <v>36</v>
       </c>
       <c r="D299" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C299,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C299,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E299" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C299,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C299,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F299" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C299,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C299,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G299" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C299,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C299,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -9117,19 +9066,19 @@
         <v>19</v>
       </c>
       <c r="D300" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C300,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C300,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New Orleans</v>
       </c>
       <c r="E300" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C300,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C300,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>LA</v>
       </c>
       <c r="F300" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C300,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C300,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.9511</v>
       </c>
       <c r="G300" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C300,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C300,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.0715</v>
       </c>
     </row>
@@ -9144,19 +9093,19 @@
         <v>78</v>
       </c>
       <c r="D301" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C301,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C301,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E301" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C301,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C301,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F301" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C301,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C301,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G301" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C301,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C301,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -9171,19 +9120,19 @@
         <v>57</v>
       </c>
       <c r="D302" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C302,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C302,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>St. Louis</v>
       </c>
       <c r="E302" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C302,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C302,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F302" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C302,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C302,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>38.627000000000002</v>
       </c>
       <c r="G302" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C302,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C302,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-90.199399999999997</v>
       </c>
     </row>
@@ -9198,19 +9147,19 @@
         <v>35</v>
       </c>
       <c r="D303" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C303,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C303,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Dallas</v>
       </c>
       <c r="E303" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C303,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C303,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F303" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C303,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C303,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>32.776699999999998</v>
       </c>
       <c r="G303" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C303,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C303,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-96.796999999999997</v>
       </c>
     </row>
@@ -9225,19 +9174,19 @@
         <v>0</v>
       </c>
       <c r="D304" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C304,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C304,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Green Bay</v>
       </c>
       <c r="E304" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C304,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C304,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WI</v>
       </c>
       <c r="F304" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C304,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C304,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>44.519199999999998</v>
       </c>
       <c r="G304" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C304,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C304,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-88.019800000000004</v>
       </c>
     </row>
@@ -9252,19 +9201,19 @@
         <v>62</v>
       </c>
       <c r="D305" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C305,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C305,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E305" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C305,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C305,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F305" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C305,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C305,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G305" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C305,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C305,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -9279,19 +9228,19 @@
         <v>102</v>
       </c>
       <c r="D306" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C306,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C306,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E306" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C306,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C306,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F306" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C306,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C306,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G306" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C306,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C306,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -9306,19 +9255,19 @@
         <v>34</v>
       </c>
       <c r="D307" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C307,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C307,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E307" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C307,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C307,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F307" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C307,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C307,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G307" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C307,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C307,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -9333,19 +9282,19 @@
         <v>12</v>
       </c>
       <c r="D308" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C308,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C308,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>New York</v>
       </c>
       <c r="E308" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C308,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C308,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>NY</v>
       </c>
       <c r="F308" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C308,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C308,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.712800000000001</v>
       </c>
       <c r="G308" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C308,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C308,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-74.005899999999997</v>
       </c>
     </row>
@@ -9360,19 +9309,19 @@
         <v>79</v>
       </c>
       <c r="D309" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C309,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C309,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E309" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C309,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C309,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F309" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C309,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C309,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G309" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C309,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C309,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -9387,19 +9336,19 @@
         <v>56</v>
       </c>
       <c r="D310" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C310,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C310,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E310" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C310,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C310,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F310" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C310,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C310,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G310" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C310,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C310,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -9414,19 +9363,19 @@
         <v>34</v>
       </c>
       <c r="D311" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C311,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C311,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Miami</v>
       </c>
       <c r="E311" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C311,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C311,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>FL</v>
       </c>
       <c r="F311" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C311,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C311,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>25.761700000000001</v>
       </c>
       <c r="G311" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C311,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C311,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-80.191800000000001</v>
       </c>
     </row>
@@ -9441,19 +9390,19 @@
         <v>15</v>
       </c>
       <c r="D312" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C312,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C312,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Baltimore</v>
       </c>
       <c r="E312" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C312,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C312,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MD</v>
       </c>
       <c r="F312" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C312,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C312,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.290399999999998</v>
       </c>
       <c r="G312" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C312,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C312,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-76.612200000000001</v>
       </c>
     </row>
@@ -9468,19 +9417,19 @@
         <v>78</v>
       </c>
       <c r="D313" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C313,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C313,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E313" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C313,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C313,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F313" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C313,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C313,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G313" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C313,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C313,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -9495,19 +9444,19 @@
         <v>102</v>
       </c>
       <c r="D314" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C314,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C314,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E314" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C314,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C314,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F314" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C314,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C314,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G314" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C314,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C314,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -9522,19 +9471,19 @@
         <v>33</v>
       </c>
       <c r="D315" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C315,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C315,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Antonio</v>
       </c>
       <c r="E315" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C315,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C315,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>TX</v>
       </c>
       <c r="F315" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C315,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C315,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>29.424099999999999</v>
       </c>
       <c r="G315" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C315,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C315,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-98.493600000000001</v>
       </c>
     </row>
@@ -9549,19 +9498,19 @@
         <v>20</v>
       </c>
       <c r="D316" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C316,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C316,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Seattle</v>
       </c>
       <c r="E316" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C316,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C316,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>WA</v>
       </c>
       <c r="F316" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C316,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C316,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>47.606200000000001</v>
       </c>
       <c r="G316" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C316,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C316,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-122.3321</v>
       </c>
     </row>
@@ -9576,19 +9525,19 @@
         <v>79</v>
       </c>
       <c r="D317" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C317,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C317,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Los Angeles</v>
       </c>
       <c r="E317" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C317,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C317,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F317" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C317,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C317,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>34.052199999999999</v>
       </c>
       <c r="G317" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C317,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C317,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-118.2437</v>
       </c>
     </row>
@@ -9603,19 +9552,19 @@
         <v>97</v>
       </c>
       <c r="D318" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C318,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C318,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Kansas City</v>
       </c>
       <c r="E318" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C318,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C318,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MO</v>
       </c>
       <c r="F318" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C318,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C318,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.099699999999999</v>
       </c>
       <c r="G318" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C318,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C318,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-94.578599999999994</v>
       </c>
     </row>
@@ -9630,19 +9579,19 @@
         <v>32</v>
       </c>
       <c r="D319" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C319,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C319,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E319" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C319,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C319,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F319" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C319,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C319,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G319" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C319,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C319,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -9657,19 +9606,19 @@
         <v>16</v>
       </c>
       <c r="D320" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C320,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C320,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E320" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C320,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C320,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F320" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C320,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C320,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G320" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C320,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C320,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -9684,19 +9633,19 @@
         <v>78</v>
       </c>
       <c r="D321" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C321,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C321,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E321" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C321,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C321,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F321" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C321,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C321,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G321" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C321,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C321,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -9711,19 +9660,19 @@
         <v>81</v>
       </c>
       <c r="D322" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C322,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C322,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Chicago</v>
       </c>
       <c r="E322" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C322,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C322,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>IL</v>
       </c>
       <c r="F322" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C322,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C322,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.878100000000003</v>
       </c>
       <c r="G322" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C322,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C322,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-87.629800000000003</v>
       </c>
     </row>
@@ -9738,19 +9687,19 @@
         <v>31</v>
       </c>
       <c r="D323" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C323,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C323,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Cleveland</v>
       </c>
       <c r="E323" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C323,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C323,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>OH</v>
       </c>
       <c r="F323" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C323,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C323,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>41.499299999999998</v>
       </c>
       <c r="G323" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C323,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C323,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-81.694400000000002</v>
       </c>
     </row>
@@ -9765,19 +9714,19 @@
         <v>13</v>
       </c>
       <c r="D324" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C324,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C324,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Denver</v>
       </c>
       <c r="E324" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C324,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C324,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CO</v>
       </c>
       <c r="F324" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C324,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C324,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>39.739199999999997</v>
       </c>
       <c r="G324" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C324,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C324,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-104.9903</v>
       </c>
     </row>
@@ -9792,19 +9741,19 @@
         <v>59</v>
       </c>
       <c r="D325" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C325,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C325,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E325" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C325,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C325,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F325" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C325,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C325,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G325" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C325,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C325,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
       </c>
     </row>
@@ -9816,11 +9765,24 @@
         <v>2017</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="D326" t="str">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C326,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <v>Houston</v>
+      </c>
+      <c r="E326" s="2" t="str">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C326,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <v>TX</v>
+      </c>
+      <c r="F326" s="2">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C326,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <v>29.760400000000001</v>
+      </c>
+      <c r="G326" s="2">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C326,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <v>-95.369799999999998</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
@@ -9833,19 +9795,19 @@
         <v>32</v>
       </c>
       <c r="D327" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C327,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C327,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>San Francisco</v>
       </c>
       <c r="E327" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C327,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C327,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>CA</v>
       </c>
       <c r="F327" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C327,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C327,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>37.774900000000002</v>
       </c>
       <c r="G327" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C327,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C327,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-112.4194</v>
       </c>
     </row>
@@ -9860,19 +9822,19 @@
         <v>16</v>
       </c>
       <c r="D328" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C328,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C328,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Boston</v>
       </c>
       <c r="E328" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C328,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C328,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>MA</v>
       </c>
       <c r="F328" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C328,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C328,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>42.360100000000003</v>
       </c>
       <c r="G328" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C328,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C328,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-71.058899999999994</v>
       </c>
     </row>
@@ -9887,20 +9849,47 @@
         <v>59</v>
       </c>
       <c r="D329" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C329,teams!$B$3:$B$95,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C329,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
         <v>Pittsburgh</v>
       </c>
       <c r="E329" s="2" t="str">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C329,teams!$B$3:$B$95,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C329,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
         <v>PA</v>
       </c>
       <c r="F329" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C329,teams!$B$3:$B$95,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C329,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
         <v>40.440600000000003</v>
       </c>
       <c r="G329" s="2">
-        <f>INDEX(teams!$A$3:$F$95,MATCH(winners!$C329,teams!$B$3:$B$95,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C329,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
         <v>-79.995900000000006</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D330" t="str">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C330,teams!$B$3:$B$97,0),MATCH(winners!D$1,teams!$A$2:$F$2,0))</f>
+        <v>Philadelphia</v>
+      </c>
+      <c r="E330" s="2" t="str">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C330,teams!$B$3:$B$97,0),MATCH(winners!E$1,teams!$A$2:$F$2,0))</f>
+        <v>PA</v>
+      </c>
+      <c r="F330" s="2">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C330,teams!$B$3:$B$97,0),MATCH(winners!F$1,teams!$A$2:$F$2,0))</f>
+        <v>39.952599999999997</v>
+      </c>
+      <c r="G330" s="2">
+        <f>INDEX(teams!$A$3:$F$97,MATCH(winners!$C330,teams!$B$3:$B$97,0),MATCH(winners!G$1,teams!$A$2:$F$2,0))</f>
+        <v>-75.165199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9914,10 +9903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9931,18 +9920,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -12107,21 +12096,21 @@
         <v>25</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E84">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C84,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>40.440600000000003</v>
+        <v>39.952599999999997</v>
       </c>
       <c r="F84">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C84,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-79.995900000000006</v>
+        <v>-75.165199999999999</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
@@ -12130,10 +12119,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>172</v>
@@ -12156,24 +12145,24 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E86">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C86,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>32.776699999999998</v>
+        <v>40.440600000000003</v>
       </c>
       <c r="F86">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C86,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-96.796999999999997</v>
+        <v>-79.995900000000006</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
@@ -12182,10 +12171,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>138</v>
@@ -12208,10 +12197,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>138</v>
@@ -12234,24 +12223,24 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E89">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C89,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>29.760400000000001</v>
+        <v>32.776699999999998</v>
       </c>
       <c r="F89">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C89,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-95.369799999999998</v>
+        <v>-96.796999999999997</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
@@ -12263,21 +12252,21 @@
         <v>52</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E90">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C90,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>29.424099999999999</v>
+        <v>29.760400000000001</v>
       </c>
       <c r="F90">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C90,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-98.493600000000001</v>
+        <v>-95.369799999999998</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
@@ -12286,24 +12275,24 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E91">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C91,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>47.606200000000001</v>
+        <v>29.760400000000001</v>
       </c>
       <c r="F91">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C91,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-122.3321</v>
+        <v>-95.369799999999998</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="2"/>
@@ -12312,24 +12301,24 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E92">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C92,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>47.606200000000001</v>
+        <v>29.424099999999999</v>
       </c>
       <c r="F92">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C92,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-122.3321</v>
+        <v>-98.493600000000001</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2"/>
@@ -12338,24 +12327,24 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E93">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C93,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>44.519199999999998</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="F93">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C93,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-88.019800000000004</v>
+        <v>-122.3321</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
@@ -12364,24 +12353,24 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E94">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C94,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>43.038899999999998</v>
+        <v>47.606200000000001</v>
       </c>
       <c r="F94">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C94,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-87.906499999999994</v>
+        <v>-122.3321</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
@@ -12390,29 +12379,81 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E95">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C95,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
-        <v>43.038899999999998</v>
+        <v>44.519199999999998</v>
       </c>
       <c r="F95">
         <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C95,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
-        <v>-87.906499999999994</v>
+        <v>-88.019800000000004</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96">
+        <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C96,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
+        <v>43.038899999999998</v>
+      </c>
+      <c r="F96">
+        <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C96,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
+        <v>-87.906499999999994</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97">
+        <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C97,cities!$A$2:$A$40,0),MATCH(E$2,cities!$A$1:$D$1,0))</f>
+        <v>43.038899999999998</v>
+      </c>
+      <c r="F97">
+        <f>INDEX(cities!$A$2:$D$40,MATCH(teams!$C97,cities!$A$2:$A$40,0),MATCH(F$2,cities!$A$1:$D$1,0))</f>
+        <v>-87.906499999999994</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:J95">
@@ -12433,8 +12474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E108" sqref="D108:E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12461,7 +12502,7 @@
       <c r="F1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -15775,9 +15816,9 @@
       <c r="A116" s="2">
         <v>2017</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="str">
         <f ca="1">IFERROR(INDEX(winners!$A$1:$G$329,MATCH($A116,winners!$B$2:$B$329,0)+MATCH(B$1,OFFSET(winners!$A$1,MATCH($A116,winners!$B$2:$B$329,0),0,4,1),0),MATCH(winners!$D$1,winners!$A$1:$G$1,0)),"N/A")</f>
-        <v>0</v>
+        <v>Houston</v>
       </c>
       <c r="C116" t="str">
         <f ca="1">IFERROR(INDEX(winners!$A$1:$G$329,MATCH($A116,winners!$B$2:$B$329,0)+MATCH(C$1,OFFSET(winners!$A$1,MATCH($A116,winners!$B$2:$B$329,0),0,4,1),0),MATCH(winners!$D$1,winners!$A$1:$G$1,0)),"N/A")</f>
@@ -15802,7 +15843,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G116">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16394,7 +16435,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16424,7 +16465,7 @@
         <v>148</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(teams!$C$3:$C$95,A2)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A2)</f>
         <v>2</v>
       </c>
       <c r="C2">
@@ -16441,7 +16482,7 @@
         <v>132</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(teams!$C$3:$C$95,A3)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A3)</f>
         <v>2</v>
       </c>
       <c r="C3">
@@ -16458,7 +16499,7 @@
         <v>111</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(teams!$C$3:$C$95,A4)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A4)</f>
         <v>6</v>
       </c>
       <c r="C4">
@@ -16475,7 +16516,7 @@
         <v>119</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(teams!$C$3:$C$95,A5)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A5)</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -16492,7 +16533,7 @@
         <v>126</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(teams!$C$3:$C$95,A6)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A6)</f>
         <v>9</v>
       </c>
       <c r="C6">
@@ -16509,7 +16550,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(teams!$C$3:$C$95,A7)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A7)</f>
         <v>3</v>
       </c>
       <c r="C7">
@@ -16526,7 +16567,7 @@
         <v>141</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(teams!$C$3:$C$95,A8)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A8)</f>
         <v>1</v>
       </c>
       <c r="C8">
@@ -16543,7 +16584,7 @@
         <v>117</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(teams!$C$3:$C$95,A9)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A9)</f>
         <v>1</v>
       </c>
       <c r="C9">
@@ -16560,7 +16601,7 @@
         <v>155</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(teams!$C$3:$C$95,A10)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A10)</f>
         <v>1</v>
       </c>
       <c r="C10">
@@ -16577,7 +16618,7 @@
         <v>123</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(teams!$C$3:$C$95,A11)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A11)</f>
         <v>4</v>
       </c>
       <c r="C11">
@@ -16594,7 +16635,7 @@
         <v>131</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(teams!$C$3:$C$95,A12)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A12)</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -16611,7 +16652,7 @@
         <v>142</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(teams!$C$3:$C$95,A13)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A13)</f>
         <v>1</v>
       </c>
       <c r="C13">
@@ -16628,7 +16669,7 @@
         <v>147</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(teams!$C$3:$C$95,A14)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A14)</f>
         <v>2</v>
       </c>
       <c r="C14">
@@ -16645,7 +16686,7 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(teams!$C$3:$C$95,A15)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A15)</f>
         <v>5</v>
       </c>
       <c r="C15">
@@ -16662,7 +16703,7 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(teams!$C$3:$C$95,A16)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A16)</f>
         <v>6</v>
       </c>
       <c r="C16">
@@ -16679,7 +16720,7 @@
         <v>165</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(teams!$C$3:$C$95,A17)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A17)</f>
         <v>1</v>
       </c>
       <c r="C17">
@@ -16696,16 +16737,16 @@
         <v>128</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(teams!$C$3:$C$95,A18)</f>
-        <v>5</v>
+        <f>COUNTIF(teams!$C$3:$C$97,A18)</f>
+        <v>6</v>
       </c>
       <c r="C18">
         <f>COUNTIF(winners!$D$2:$D$400,A18)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -16713,7 +16754,7 @@
         <v>140</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(teams!$C$3:$C$95,A19)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A19)</f>
         <v>2</v>
       </c>
       <c r="C19">
@@ -16730,7 +16771,7 @@
         <v>146</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(teams!$C$3:$C$95,A20)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A20)</f>
         <v>3</v>
       </c>
       <c r="C20">
@@ -16747,7 +16788,7 @@
         <v>138</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(teams!$C$3:$C$95,A21)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A21)</f>
         <v>3</v>
       </c>
       <c r="C21">
@@ -16764,16 +16805,16 @@
         <v>144</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(teams!$C$3:$C$95,A22)</f>
-        <v>1</v>
+        <f>COUNTIF(teams!$C$3:$C$97,A22)</f>
+        <v>2</v>
       </c>
       <c r="C22">
         <f>COUNTIF(winners!$D$2:$D$400,A22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -16781,7 +16822,7 @@
         <v>109</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(teams!$C$3:$C$95,A23)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A23)</f>
         <v>4</v>
       </c>
       <c r="C23">
@@ -16798,7 +16839,7 @@
         <v>134</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(teams!$C$3:$C$95,A24)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A24)</f>
         <v>3</v>
       </c>
       <c r="C24">
@@ -16815,7 +16856,7 @@
         <v>122</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(teams!$C$3:$C$95,A25)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A25)</f>
         <v>2</v>
       </c>
       <c r="C25">
@@ -16832,7 +16873,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(teams!$C$3:$C$95,A26)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A26)</f>
         <v>2</v>
       </c>
       <c r="C26">
@@ -16849,7 +16890,7 @@
         <v>105</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(teams!$C$3:$C$95,A27)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A27)</f>
         <v>2</v>
       </c>
       <c r="C27">
@@ -16866,7 +16907,7 @@
         <v>158</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(teams!$C$3:$C$95,A28)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A28)</f>
         <v>0</v>
       </c>
       <c r="C28">
@@ -16883,7 +16924,7 @@
         <v>156</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(teams!$C$3:$C$95,A29)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A29)</f>
         <v>2</v>
       </c>
       <c r="C29">
@@ -16900,7 +16941,7 @@
         <v>124</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(teams!$C$3:$C$95,A30)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A30)</f>
         <v>2</v>
       </c>
       <c r="C30">
@@ -16917,7 +16958,7 @@
         <v>170</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(teams!$C$3:$C$95,A31)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A31)</f>
         <v>1</v>
       </c>
       <c r="C31">
@@ -16934,7 +16975,7 @@
         <v>136</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(teams!$C$3:$C$95,A32)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A32)</f>
         <v>1</v>
       </c>
       <c r="C32">
@@ -16951,7 +16992,7 @@
         <v>152</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(teams!$C$3:$C$95,A33)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A33)</f>
         <v>1</v>
       </c>
       <c r="C33">
@@ -16968,7 +17009,7 @@
         <v>107</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(teams!$C$3:$C$95,A34)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A34)</f>
         <v>1</v>
       </c>
       <c r="C34">
@@ -16985,7 +17026,7 @@
         <v>145</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(teams!$C$3:$C$95,A35)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A35)</f>
         <v>1</v>
       </c>
       <c r="C35">
@@ -17002,7 +17043,7 @@
         <v>150</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(teams!$C$3:$C$95,A36)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A36)</f>
         <v>1</v>
       </c>
       <c r="C36">
@@ -17019,7 +17060,7 @@
         <v>169</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(teams!$C$3:$C$95,A37)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A37)</f>
         <v>1</v>
       </c>
       <c r="C37">
@@ -17036,7 +17077,7 @@
         <v>162</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(teams!$C$3:$C$95,A38)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A38)</f>
         <v>1</v>
       </c>
       <c r="C38">
@@ -17053,7 +17094,7 @@
         <v>164</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(teams!$C$3:$C$95,A39)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A39)</f>
         <v>1</v>
       </c>
       <c r="C39">
@@ -17070,7 +17111,7 @@
         <v>153</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(teams!$C$3:$C$95,A40)</f>
+        <f>COUNTIF(teams!$C$3:$C$97,A40)</f>
         <v>1</v>
       </c>
       <c r="C40">
@@ -17095,7 +17136,7 @@
   <dimension ref="A1:AQ116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
@@ -17107,134 +17148,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <f t="array" ref="E1:AQ1">TRANSPOSE(cities!A2:A40)</f>
         <v>Phoenix</v>
       </c>
-      <c r="F1" s="8" t="str">
+      <c r="F1" s="7" t="str">
         <v>Anaheim</v>
       </c>
-      <c r="G1" s="8" t="str">
+      <c r="G1" s="7" t="str">
         <v>Los Angeles</v>
       </c>
-      <c r="H1" s="8" t="str">
+      <c r="H1" s="7" t="str">
         <v>San Francisco</v>
       </c>
-      <c r="I1" s="8" t="str">
+      <c r="I1" s="7" t="str">
         <v>Calgary</v>
       </c>
-      <c r="J1" s="8" t="str">
+      <c r="J1" s="7" t="str">
         <v>Edmonton</v>
       </c>
-      <c r="K1" s="8" t="str">
+      <c r="K1" s="7" t="str">
         <v>Montreal</v>
       </c>
-      <c r="L1" s="8" t="str">
+      <c r="L1" s="7" t="str">
         <v>Ottawa</v>
       </c>
-      <c r="M1" s="8" t="str">
+      <c r="M1" s="7" t="str">
         <v>Toronto</v>
       </c>
-      <c r="N1" s="8" t="str">
+      <c r="N1" s="7" t="str">
         <v>Denver</v>
       </c>
-      <c r="O1" s="8" t="str">
+      <c r="O1" s="7" t="str">
         <v>Washington</v>
       </c>
-      <c r="P1" s="8" t="str">
+      <c r="P1" s="7" t="str">
         <v>Miami</v>
       </c>
-      <c r="Q1" s="8" t="str">
+      <c r="Q1" s="7" t="str">
         <v>Tampa</v>
       </c>
-      <c r="R1" s="8" t="str">
+      <c r="R1" s="7" t="str">
         <v>Atlanta</v>
       </c>
-      <c r="S1" s="8" t="str">
+      <c r="S1" s="7" t="str">
         <v>Chicago</v>
       </c>
-      <c r="T1" s="8" t="str">
+      <c r="T1" s="7" t="str">
         <v>Indianapolis</v>
       </c>
-      <c r="U1" s="8" t="str">
+      <c r="U1" s="7" t="str">
         <v>New Orleans</v>
       </c>
-      <c r="V1" s="8" t="str">
+      <c r="V1" s="7" t="str">
         <v>Boston</v>
       </c>
-      <c r="W1" s="8" t="str">
+      <c r="W1" s="7" t="str">
         <v>Baltimore</v>
       </c>
-      <c r="X1" s="8" t="str">
+      <c r="X1" s="7" t="str">
         <v>Detroit</v>
       </c>
-      <c r="Y1" s="8" t="str">
+      <c r="Y1" s="7" t="str">
         <v>Minneapolis</v>
       </c>
-      <c r="Z1" s="8" t="str">
+      <c r="Z1" s="7" t="str">
         <v>Kansas City</v>
       </c>
-      <c r="AA1" s="8" t="str">
+      <c r="AA1" s="7" t="str">
         <v>St. Louis</v>
       </c>
-      <c r="AB1" s="8" t="str">
+      <c r="AB1" s="7" t="str">
         <v>Raleigh</v>
       </c>
-      <c r="AC1" s="8" t="str">
+      <c r="AC1" s="7" t="str">
         <v>Newark</v>
       </c>
-      <c r="AD1" s="8" t="str">
+      <c r="AD1" s="7" t="str">
         <v>New York</v>
       </c>
-      <c r="AE1" s="8" t="str">
+      <c r="AE1" s="7" t="str">
         <v>Rochester</v>
       </c>
-      <c r="AF1" s="8" t="str">
+      <c r="AF1" s="7" t="str">
         <v>Syracuse</v>
       </c>
-      <c r="AG1" s="8" t="str">
+      <c r="AG1" s="7" t="str">
         <v>Cincinnati</v>
       </c>
-      <c r="AH1" s="8" t="str">
+      <c r="AH1" s="7" t="str">
         <v>Cleveland</v>
       </c>
-      <c r="AI1" s="8" t="str">
+      <c r="AI1" s="7" t="str">
         <v>Portland</v>
       </c>
-      <c r="AJ1" s="8" t="str">
+      <c r="AJ1" s="7" t="str">
         <v>Philadelphia</v>
       </c>
-      <c r="AK1" s="8" t="str">
+      <c r="AK1" s="7" t="str">
         <v>Pittsburgh</v>
       </c>
-      <c r="AL1" s="8" t="str">
+      <c r="AL1" s="7" t="str">
         <v>Dallas</v>
       </c>
-      <c r="AM1" s="8" t="str">
+      <c r="AM1" s="7" t="str">
         <v>Houston</v>
       </c>
-      <c r="AN1" s="8" t="str">
+      <c r="AN1" s="7" t="str">
         <v>San Antonio</v>
       </c>
-      <c r="AO1" s="8" t="str">
+      <c r="AO1" s="7" t="str">
         <v>Seattle</v>
       </c>
-      <c r="AP1" s="8" t="str">
+      <c r="AP1" s="7" t="str">
         <v>Green Bay</v>
       </c>
-      <c r="AQ1" s="8" t="str">
+      <c r="AQ1" s="7" t="str">
         <v>Milwaukee</v>
       </c>
     </row>
@@ -37114,7 +37155,7 @@
       </c>
       <c r="AM116">
         <f ca="1">COUNTIF(OFFSET('winners matrix'!$B$1,MATCH($A116,'winners matrix'!$A$2:$A$116,0)-options!$B$2+1,0,options!$B$2,4),AM$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN116">
         <f ca="1">COUNTIF(OFFSET('winners matrix'!$B$1,MATCH($A116,'winners matrix'!$A$2:$A$116,0)-options!$B$2+1,0,options!$B$2,4),AN$1)</f>
@@ -37135,12 +37176,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D116">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:AQ116">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$C2</formula>
     </cfRule>
   </conditionalFormatting>
